--- a/data/日韩数据.xlsx
+++ b/data/日韩数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\homework\topic-presentation-wonder-woman\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\homework\project-wonder-woman\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D09153-D1BC-41AB-8FD8-0A3E26E66BAE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C43C873-BABB-4533-A8EA-CA2BAAA0410F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14145" yWindow="2565" windowWidth="6345" windowHeight="7185" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本" sheetId="1" r:id="rId1"/>
@@ -369,9 +369,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1222,6 +1222,18 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43917</v>
+      </c>
+      <c r="B55">
+        <v>1387</v>
+      </c>
+      <c r="C55">
+        <v>96</v>
+      </c>
+      <c r="D55">
+        <v>46</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1360,9 +1372,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4B32D8-8056-4211-A4CC-D5653CA9FF73}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2181,6 +2193,18 @@
       <c r="A55" s="1">
         <v>43917</v>
       </c>
+      <c r="B55">
+        <v>9332</v>
+      </c>
+      <c r="C55">
+        <v>91</v>
+      </c>
+      <c r="D55">
+        <v>139</v>
+      </c>
+      <c r="E55">
+        <v>8</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">

--- a/data/日韩数据.xlsx
+++ b/data/日韩数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\homework\project-wonder-woman\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C43C873-BABB-4533-A8EA-CA2BAAA0410F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19736B20-2DBA-405B-9DF7-5A93441256C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14145" yWindow="2565" windowWidth="6345" windowHeight="7185" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12990" yWindow="2910" windowWidth="6345" windowHeight="7185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本" sheetId="1" r:id="rId1"/>
@@ -369,9 +369,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1240,15 +1240,51 @@
       <c r="A56" s="1">
         <v>43918</v>
       </c>
+      <c r="B56">
+        <v>1499</v>
+      </c>
+      <c r="C56">
+        <v>112</v>
+      </c>
+      <c r="D56">
+        <v>49</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43919</v>
       </c>
+      <c r="B57">
+        <v>1693</v>
+      </c>
+      <c r="C57">
+        <v>194</v>
+      </c>
+      <c r="D57">
+        <v>52</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43920</v>
+      </c>
+      <c r="B58">
+        <v>1866</v>
+      </c>
+      <c r="C58">
+        <v>173</v>
+      </c>
+      <c r="D58">
+        <v>54</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1372,9 +1408,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4B32D8-8056-4211-A4CC-D5653CA9FF73}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2210,15 +2246,51 @@
       <c r="A56" s="1">
         <v>43918</v>
       </c>
+      <c r="B56">
+        <v>9478</v>
+      </c>
+      <c r="C56">
+        <v>146</v>
+      </c>
+      <c r="D56">
+        <v>144</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43919</v>
       </c>
+      <c r="B57">
+        <v>9583</v>
+      </c>
+      <c r="C57">
+        <v>105</v>
+      </c>
+      <c r="D57">
+        <v>152</v>
+      </c>
+      <c r="E57">
+        <v>8</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43920</v>
+      </c>
+      <c r="B58">
+        <v>9661</v>
+      </c>
+      <c r="C58">
+        <v>78</v>
+      </c>
+      <c r="D58">
+        <v>158</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
